--- a/Api/config/Plantilla_Implementaciones.xlsx
+++ b/Api/config/Plantilla_Implementaciones.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bullmarketingsas-my.sharepoint.com/personal/santiago_parraga_bullmarketing_com_co/Documents/Documentos/DesarrolloWeb/Terpel_Prbs/Api/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="14_{93274129-114F-44F0-8C47-7853BBAF3F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5756BB25-5787-4F02-9E23-34FECAE7A3F7}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="14_{93274129-114F-44F0-8C47-7853BBAF3F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D99783-10EC-4EA6-94F7-897287CEE203}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8029ABB4-7B01-4197-A985-FBC98B70FA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte" sheetId="10" r:id="rId1"/>
+    <sheet name="Visitas" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Segmento</t>
   </si>
@@ -75,13 +76,79 @@
   </si>
   <si>
     <t>Quinta implementación</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>Meta Total</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>CC Asesor</t>
+  </si>
+  <si>
+    <t>Fecha Registro</t>
+  </si>
+  <si>
+    <t>Fecha Creación</t>
+  </si>
+  <si>
+    <t>Estado Backoffice</t>
+  </si>
+  <si>
+    <t>Estado AC</t>
+  </si>
+  <si>
+    <t>Observación AC</t>
+  </si>
+  <si>
+    <t>Observación Backoffice</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>Presentaciones</t>
+  </si>
+  <si>
+    <t>Cant. Cajas</t>
+  </si>
+  <si>
+    <t>Galones</t>
+  </si>
+  <si>
+    <t>Precio Sugerido</t>
+  </si>
+  <si>
+    <t>Precio Real</t>
+  </si>
+  <si>
+    <t>Foto Factura</t>
+  </si>
+  <si>
+    <t>Foto Seguimiento</t>
+  </si>
+  <si>
+    <t>Registro de Visitas por Punto de Venta</t>
+  </si>
+  <si>
+    <t>Tipo Actividad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +180,13 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -134,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -147,16 +221,68 @@
         <color rgb="FFE97132"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FFE97132"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE97132"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE97132"/>
+      </left>
       <right style="thin">
         <color rgb="FFE97132"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFE97132"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -164,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -177,29 +303,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,289 +339,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFE97132"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE97132"/>
-          <bgColor rgb="FFE97132"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -500,26 +350,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7EF53CFD-29BD-4871-82EB-4247B29B0EE9}" name="TablaImplementacion12" displayName="TablaImplementacion12" ref="B4:M5" insertRow="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{51B4917E-520B-4FE9-8A3D-3E3A65D8CFF9}" name="Empresa" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{7F9AF3DE-925C-4F08-816F-7B74D43312FD}" name="Código" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2505F795-F19D-45F0-B6A9-496C5C216C15}" name="Nombre P.D.V." dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{DCCD86F6-6E42-4EB1-93E4-064881734AB9}" name="Dirección" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{B2085BC8-461C-44A7-B268-06ECD9DCCEE7}" name="Segmento" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{8A2FB7E6-0B3D-4BF7-A8CC-529616D15E5F}" name="Galones Comprados" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{0BC29EAA-985C-4095-B47B-10337922ACA2}" name="Cuantas implementaciones puede tener" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{26CDA18A-33F4-42E0-B3C4-67FEA8B0E57B}" name="Primera implementación" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{3A2D0C9E-0B80-46D6-A7B6-4660E88051CB}" name="Segunda implementación" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{F250FDE1-52E0-4DC5-B1CC-07223FCCFE35}" name="Tercera implementación" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{ADCD98B2-990D-4F3A-A390-7B61A49371FB}" name="Cuarta implementación" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{A63F2221-DAE2-4362-A122-4790BB421460}" name="Quinta implementación" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,33 +672,34 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:S10"/>
+  <dimension ref="B1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="39.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26" style="2" customWidth="1"/>
-    <col min="14" max="15" width="25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.44140625" style="1"/>
+    <col min="3" max="4" width="9.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="25.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="46" style="2" customWidth="1"/>
+    <col min="14" max="14" width="25.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.33203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -884,29 +715,39 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="2:19" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="2:24" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -922,72 +763,318 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="L4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="N4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="O4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="Q4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="R4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S10" s="13"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF0AD1C-CEE4-4187-9961-38D320E218DF}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B1:AC10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="25.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="46" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="25.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="25" style="2" customWidth="1"/>
+    <col min="26" max="26" width="24.33203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="2:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+    </row>
+    <row r="3" spans="2:29" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AC10" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Api/config/Plantilla_Implementaciones.xlsx
+++ b/Api/config/Plantilla_Implementaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bullmarketingsas-my.sharepoint.com/personal/santiago_parraga_bullmarketing_com_co/Documents/Documentos/DesarrolloWeb/Terpel_Prbs/Api/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bullmarketingsas-my.sharepoint.com/personal/santiago_parraga_bullmarketing_com_co/Documents/Documentos/DesarrolloWeb/Terpel_Prbs_backup/Terpel_Prbs/Api/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="14_{93274129-114F-44F0-8C47-7853BBAF3F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D99783-10EC-4EA6-94F7-897287CEE203}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="14_{93274129-114F-44F0-8C47-7853BBAF3F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC3801D-CC1A-4A2B-8969-E69D6144A0A7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8029ABB4-7B01-4197-A985-FBC98B70FA5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{8029ABB4-7B01-4197-A985-FBC98B70FA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte" sheetId="10" r:id="rId1"/>
@@ -674,7 +674,7 @@
   </sheetPr>
   <dimension ref="B1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -862,7 +862,7 @@
   </sheetPr>
   <dimension ref="B1:AC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1011,10 +1011,10 @@
         <v>22</v>
       </c>
       <c r="N4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>25</v>

--- a/Api/config/Plantilla_Implementaciones.xlsx
+++ b/Api/config/Plantilla_Implementaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bullmarketingsas-my.sharepoint.com/personal/santiago_parraga_bullmarketing_com_co/Documents/Documentos/DesarrolloWeb/Terpel_Prbs_backup/Terpel_Prbs/Api/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="14_{93274129-114F-44F0-8C47-7853BBAF3F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC3801D-CC1A-4A2B-8969-E69D6144A0A7}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="14_{93274129-114F-44F0-8C47-7853BBAF3F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585B033E-F971-4474-A1F5-738445F74560}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{8029ABB4-7B01-4197-A985-FBC98B70FA5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8029ABB4-7B01-4197-A985-FBC98B70FA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Segmento</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Tipo Actividad</t>
+  </si>
+  <si>
+    <t>ID Registro</t>
   </si>
 </sst>
 </file>
@@ -350,6 +353,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,30 +683,30 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="25.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="25.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="46" style="2" customWidth="1"/>
-    <col min="14" max="14" width="25.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="24.33203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" style="2" customWidth="1"/>
     <col min="22" max="22" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="1"/>
+    <col min="23" max="23" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -721,7 +728,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="2:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
@@ -747,7 +754,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" spans="2:24" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -769,7 +776,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -825,7 +832,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -844,7 +851,7 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="X10" s="7"/>
     </row>
   </sheetData>
@@ -860,35 +867,37 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:AC10"/>
+  <dimension ref="B1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="25.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="46" style="2" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="25.5546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="25.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="24.33203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="25.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="46" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="25.5703125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="24.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -914,8 +923,9 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="2:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>33</v>
       </c>
@@ -940,13 +950,14 @@
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
-      <c r="X2" s="8"/>
+      <c r="X2" s="17"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
-    </row>
-    <row r="3" spans="2:29" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="2:30" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -972,8 +983,9 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -996,55 +1008,58 @@
         <v>18</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="2:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1055,9 +1070,9 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="14"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -1066,14 +1081,15 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="16"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="AC10" s="7"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AD10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Api/config/Plantilla_Implementaciones.xlsx
+++ b/Api/config/Plantilla_Implementaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bullmarketingsas-my.sharepoint.com/personal/santiago_parraga_bullmarketing_com_co/Documents/Documentos/DesarrolloWeb/Terpel_Prbs_backup/Terpel_Prbs/Api/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bullmarketingsas-my.sharepoint.com/personal/santiago_parraga_bullmarketing_com_co/Documents/Documentos/DesarrolloWeb/Frotend_Git_Terpel/PlanChoqueNacional_/Api/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="14_{93274129-114F-44F0-8C47-7853BBAF3F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585B033E-F971-4474-A1F5-738445F74560}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="14_{93274129-114F-44F0-8C47-7853BBAF3F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB483A48-7353-4E05-B7BB-354BADBD7F0C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8029ABB4-7B01-4197-A985-FBC98B70FA5E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8029ABB4-7B01-4197-A985-FBC98B70FA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Segmento</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Implementacion por Punto de Venta</t>
   </si>
   <si>
-    <t>Quinta implementación</t>
-  </si>
-  <si>
     <t>NIT</t>
   </si>
   <si>
@@ -145,6 +142,12 @@
   </si>
   <si>
     <t>ID Registro</t>
+  </si>
+  <si>
+    <t>Quinta implementación 2</t>
+  </si>
+  <si>
+    <t>Quinta implementación 1</t>
   </si>
 </sst>
 </file>
@@ -353,10 +356,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,7 +680,7 @@
   </sheetPr>
   <dimension ref="B1:X10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -748,7 +747,7 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="8"/>
+      <c r="S2" s="17"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -784,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -796,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>6</v>
@@ -826,9 +825,11 @@
         <v>10</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
@@ -850,13 +851,14 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="X10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -869,8 +871,8 @@
   </sheetPr>
   <dimension ref="B1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +929,7 @@
     </row>
     <row r="2" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -993,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -1002,58 +1004,58 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
